--- a/構成.xlsx
+++ b/構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14370"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Core</t>
     <phoneticPr fontId="1"/>
@@ -111,6 +111,112 @@
   </si>
   <si>
     <t>STL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STL/STLPort/EASTL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectX,OpenGL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Havok,PhysX,ODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経路探索</t>
+    <rPh sb="0" eb="2">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kynapse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Granny,Havok Animation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サードパーティSDK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム検出</t>
+    <rPh sb="8" eb="10">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトミックデータタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクションとイテレータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高精度タイマー</t>
+    <rPh sb="0" eb="3">
+      <t>コウセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィックスラッパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィジックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理コリジョンラッパー</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コアシステム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -164,13 +270,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +430,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -495,6 +792,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
@@ -687,12 +985,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
